--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="898">
   <si>
     <t>anchor score</t>
   </si>
@@ -82,700 +82,700 @@
     <t>disgusting</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -3073,10 +3073,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3134,7 +3134,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03302073994209349</v>
+        <v>0.03355915772437586</v>
       </c>
       <c r="C3">
         <v>236</v>
@@ -3184,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03302073994209349</v>
+        <v>0.03355915772437586</v>
       </c>
       <c r="C4">
         <v>236</v>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01409499827921672</v>
+        <v>0.0143248234656928</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -3255,7 +3255,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>0.01017461630816844</v>
@@ -3284,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01196772624285133</v>
+        <v>0.01216286531707978</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3305,7 +3305,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.009542459397731975</v>
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01074733543210536</v>
+        <v>0.01092257549392549</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3355,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.00917245486292065</v>
@@ -3384,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01030848201138132</v>
+        <v>0.01047656637390617</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="K8">
         <v>0.008865339570274754</v>
@@ -3414,19 +3414,19 @@
         <v>227</v>
       </c>
       <c r="M8">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="N8">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3434,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01030848201138132</v>
+        <v>0.01047656637390617</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3455,7 +3455,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.008279708396795248</v>
@@ -3484,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00985009562734075</v>
+        <v>0.01001070579695665</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -3505,7 +3505,7 @@
         <v>2521</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0.008153293211485021</v>
@@ -3534,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009369309812176263</v>
+        <v>0.009522080556243019</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -3555,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11">
         <v>0.00813203295831955</v>
@@ -3584,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009119416516473786</v>
+        <v>0.009268112639732064</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3605,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>0.007894392206206869</v>
@@ -3634,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009119416516473786</v>
+        <v>0.009268112639732064</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3655,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="K13">
         <v>0.007783975688499938</v>
@@ -3664,19 +3664,19 @@
         <v>175</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3684,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009119416516473786</v>
+        <v>0.009268112639732064</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3705,7 +3705,7 @@
         <v>1716</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14">
         <v>0.006987020264216986</v>
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008862479836102726</v>
+        <v>0.009006986493047561</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3755,7 +3755,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15">
         <v>0.006708943317900603</v>
@@ -3784,7 +3784,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00859786834568429</v>
+        <v>0.008738060395140395</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <v>0.006631080603570292</v>
@@ -3834,28 +3834,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00859786834568429</v>
+        <v>0.008460590597133338</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>0.006391804014186853</v>
@@ -3884,13 +3884,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008324850228929792</v>
+        <v>0.008173707055888471</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K18">
         <v>0.006364662473259901</v>
@@ -3934,7 +3934,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008042569401534867</v>
+        <v>0.008173707055888471</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K19">
         <v>0.006282534355398771</v>
@@ -3984,28 +3984,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008042569401534867</v>
+        <v>0.008173707055888471</v>
       </c>
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>644</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>0.006114969908613766</v>
@@ -4034,28 +4034,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008042569401534867</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
         <v>0.005942682562592239</v>
@@ -4084,7 +4084,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007750013795013362</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22">
         <v>0.005795198465408773</v>
@@ -4134,7 +4134,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007750013795013362</v>
+        <v>0.007876381200694955</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23">
         <v>0.005795198465408773</v>
@@ -4184,13 +4184,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007750013795013362</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K24">
         <v>0.005795198465408773</v>
@@ -4234,7 +4234,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -4252,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>0.005262928137471246</v>
@@ -4284,7 +4284,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K26">
         <v>0.005196725148175714</v>
@@ -4334,28 +4334,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00744597240575668</v>
+        <v>0.007567382281994272</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <v>0.005196725148175714</v>
@@ -4384,28 +4384,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00744597240575668</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K28">
         <v>0.004887727575306433</v>
@@ -4434,28 +4434,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00744597240575668</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>0.004780291871701341</v>
@@ -4484,7 +4484,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>0.004707306030432825</v>
@@ -4534,7 +4534,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K31">
         <v>0.004519687962446919</v>
@@ -4584,28 +4584,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K32">
         <v>0.004442422645739926</v>
@@ -4634,25 +4634,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007128975824877122</v>
+        <v>0.007245216931536334</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>620</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>254</v>
@@ -4684,28 +4684,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007128975824877122</v>
+        <v>0.006908043295188639</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K34">
         <v>0.004323936689132477</v>
@@ -4734,28 +4734,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007128975824877122</v>
+        <v>0.006908043295188639</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>620</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K35">
         <v>0.004283713148002979</v>
@@ -4784,28 +4784,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006797211748656573</v>
+        <v>0.006908043295188639</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K36">
         <v>0.004202111138448022</v>
@@ -4834,13 +4834,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006797211748656573</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>255</v>
@@ -4884,28 +4884,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006797211748656573</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K38">
         <v>0.003990812853743867</v>
@@ -4934,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006448401259263217</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K39">
         <v>0.003903091969080745</v>
@@ -4984,28 +4984,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006448401259263217</v>
+        <v>0.006553545296355296</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3012</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>0.003813353721410845</v>
@@ -5034,28 +5034,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006448401259263217</v>
+        <v>0.006178741759821377</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>524</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K41">
         <v>0.003767683167059779</v>
@@ -5084,28 +5084,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006448401259263217</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K42">
         <v>0.003767683167059779</v>
@@ -5134,25 +5134,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006079611010982525</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>256</v>
@@ -5184,7 +5184,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>0.003627222901282552</v>
@@ -5234,7 +5234,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5252,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K45">
         <v>0.003627222901282552</v>
@@ -5284,7 +5284,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>257</v>
@@ -5334,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -5352,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K47">
         <v>0.003481099754938318</v>
@@ -5384,7 +5384,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>258</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K49">
         <v>0.003222872122435198</v>
@@ -5484,7 +5484,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>259</v>
@@ -5534,28 +5534,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K51">
         <v>0.003168702346437359</v>
@@ -5584,28 +5584,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K52">
         <v>0.003113590275399976</v>
@@ -5634,28 +5634,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E53">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F53">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K53">
         <v>0.003113590275399976</v>
@@ -5684,28 +5684,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005686955361988738</v>
+        <v>0.005779683686651069</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54">
         <v>0.003113590275399976</v>
@@ -5734,28 +5734,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005686955361988738</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>0.003113590275399976</v>
@@ -5784,13 +5784,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005686955361988738</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>260</v>
@@ -5834,7 +5834,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>261</v>
@@ -5884,7 +5884,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K58">
         <v>0.003000330663203746</v>
@@ -5934,7 +5934,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5952,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K59">
         <v>0.003000330663203746</v>
@@ -5984,7 +5984,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -6002,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K60">
         <v>0.002942066269020516</v>
@@ -6034,7 +6034,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>0.002882624459421651</v>
@@ -6084,28 +6084,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>0.002882624459421651</v>
@@ -6134,25 +6134,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00526509758063846</v>
+        <v>0.00535094732742908</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>262</v>
@@ -6184,25 +6184,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00526509758063846</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>263</v>
@@ -6234,28 +6234,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00526509758063846</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K65">
         <v>0.002821930831328726</v>
@@ -6284,7 +6284,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004806354520635933</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>264</v>
@@ -6334,28 +6334,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004806354520635933</v>
+        <v>0.004884724258758149</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K67">
         <v>0.002696448275472565</v>
@@ -6384,13 +6384,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004806354520635933</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>265</v>
@@ -6434,25 +6434,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004806354520635933</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>266</v>
@@ -6484,7 +6484,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K70">
         <v>0.002631464068735623</v>
@@ -6534,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -6555,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K71">
         <v>0.002631464068735623</v>
@@ -6584,7 +6584,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>267</v>
@@ -6634,25 +6634,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>268</v>
@@ -6684,28 +6684,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K74">
         <v>0.002631464068735623</v>
@@ -6734,28 +6734,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E75">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F75">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>28</v>
+        <v>422</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K75">
         <v>0.002564833910372036</v>
@@ -6784,25 +6784,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="E76">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F76">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>269</v>
@@ -6834,28 +6834,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="E77">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F77">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K77">
         <v>0.002564833910372036</v>
@@ -6884,25 +6884,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004298934172842145</v>
+        <v>0.004369030197570197</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E78">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F78">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>270</v>
@@ -6934,28 +6934,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004298934172842145</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K79">
         <v>0.002496426011429534</v>
@@ -6984,28 +6984,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004298934172842145</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K80">
         <v>0.00242608999694769</v>
@@ -7034,7 +7034,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>271</v>
@@ -7084,7 +7084,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>272</v>
@@ -7134,7 +7134,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7152,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K83">
         <v>0.00242608999694769</v>
@@ -7184,7 +7184,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>273</v>
@@ -7234,7 +7234,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>274</v>
@@ -7284,7 +7284,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -7302,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K86">
         <v>0.002353653015216413</v>
@@ -7334,7 +7334,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>275</v>
@@ -7384,7 +7384,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>276</v>
@@ -7434,7 +7434,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K89">
         <v>0.00227891473267101</v>
@@ -7484,28 +7484,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K90">
         <v>0.002201640797571813</v>
@@ -7534,25 +7534,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>277</v>
@@ -7584,28 +7584,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E92">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F92">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K92">
         <v>0.002201640797571813</v>
@@ -7634,28 +7634,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E93">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F93">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K93">
         <v>0.002201640797571813</v>
@@ -7684,25 +7684,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>278</v>
@@ -7734,25 +7734,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F95">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>279</v>
@@ -7784,25 +7784,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E96">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F96">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>98</v>
+        <v>810</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>280</v>
@@ -7834,25 +7834,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E97">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F97">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>281</v>
@@ -7884,28 +7884,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E98">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F98">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>810</v>
+        <v>9</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K98">
         <v>0.002038323302871255</v>
@@ -7934,25 +7934,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F99">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>282</v>
@@ -7984,25 +7984,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>283</v>
@@ -8034,25 +8034,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00372298620287834</v>
+        <v>0.003783691140997136</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>284</v>
@@ -8084,13 +8084,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00372298620287834</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K102">
         <v>0.002038323302871255</v>
@@ -8134,13 +8134,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00372298620287834</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K103">
         <v>0.002038323302871255</v>
@@ -8184,7 +8184,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K104">
         <v>0.002038323302871255</v>
@@ -8234,7 +8234,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8252,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K105">
         <v>0.002038323302871255</v>
@@ -8284,7 +8284,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>285</v>
@@ -8334,7 +8334,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K107">
         <v>0.001951545984540372</v>
@@ -8384,7 +8384,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>286</v>
@@ -8434,7 +8434,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>287</v>
@@ -8484,7 +8484,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8502,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K110">
         <v>0.001951545984540372</v>
@@ -8534,25 +8534,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>288</v>
@@ -8584,25 +8584,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>289</v>
@@ -8634,28 +8634,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K113">
         <v>0.001860726087451702</v>
@@ -8684,25 +8684,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F114">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>290</v>
@@ -8734,25 +8734,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>291</v>
@@ -8784,13 +8784,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E116">
         <v>0.9</v>
@@ -8802,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>292</v>
@@ -8834,25 +8834,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E117">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>20</v>
+        <v>1121</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>293</v>
@@ -8884,25 +8884,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E118">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F118">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>294</v>
@@ -8934,25 +8934,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E119">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F119">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1121</v>
+        <v>48</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>295</v>
@@ -8984,25 +8984,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E120">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F120">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>296</v>
@@ -9034,19 +9034,19 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9084,25 +9084,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>298</v>
@@ -9134,28 +9134,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K123">
         <v>0.00176523976141231</v>
@@ -9184,25 +9184,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="F124">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>299</v>
@@ -9234,25 +9234,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E125">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>300</v>
@@ -9284,25 +9284,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E126">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>301</v>
@@ -9334,25 +9334,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E127">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F127">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>54</v>
+        <v>942</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>302</v>
@@ -9384,25 +9384,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="F128">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>303</v>
@@ -9434,7 +9434,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>942</v>
+        <v>46</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>304</v>
@@ -9484,25 +9484,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E130">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.18</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>305</v>
@@ -9534,25 +9534,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>306</v>
@@ -9584,25 +9584,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>307</v>
@@ -9634,28 +9634,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E133">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F133">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K133">
         <v>0.00166428400761969</v>
@@ -9684,28 +9684,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E134">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K134">
         <v>0.00166428400761969</v>
@@ -9734,25 +9734,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E135">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F135">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>308</v>
@@ -9784,25 +9784,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>309</v>
@@ -9834,25 +9834,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>310</v>
@@ -9884,25 +9884,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.003039805505491263</v>
+        <v>0.003089370879910688</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>311</v>
@@ -9934,13 +9934,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.003039805505491263</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9952,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K139">
         <v>0.001556795137699988</v>
@@ -9984,13 +9984,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.003039805505491263</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>312</v>
@@ -10034,7 +10034,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>313</v>
@@ -10084,7 +10084,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10102,10 +10102,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K142">
         <v>0.001556795137699988</v>
@@ -10134,7 +10134,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>314</v>
@@ -10184,7 +10184,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>315</v>
@@ -10234,7 +10234,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>316</v>
@@ -10284,7 +10284,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>317</v>
@@ -10334,7 +10334,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>318</v>
@@ -10384,7 +10384,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>319</v>
@@ -10434,7 +10434,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>320</v>
@@ -10484,25 +10484,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>321</v>
@@ -10534,25 +10534,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>322</v>
@@ -10584,25 +10584,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>323</v>
@@ -10634,25 +10634,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>324</v>
@@ -10684,25 +10684,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>325</v>
@@ -10734,25 +10734,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>326</v>
@@ -10784,25 +10784,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>327</v>
@@ -10834,25 +10834,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>328</v>
@@ -10884,28 +10884,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K158">
         <v>0.001441312229710825</v>
@@ -10934,7 +10934,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>329</v>
@@ -10984,28 +10984,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K160">
         <v>0.001441312229710825</v>
@@ -11034,7 +11034,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11052,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>330</v>
@@ -11084,25 +11084,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>331</v>
@@ -11134,7 +11134,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11152,10 +11152,10 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K163">
         <v>0.001441312229710825</v>
@@ -11184,25 +11184,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E164">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F164">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>332</v>
@@ -11234,25 +11234,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>333</v>
@@ -11284,25 +11284,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>355</v>
+        <v>57</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>334</v>
@@ -11334,25 +11334,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167">
         <v>5</v>
-      </c>
-      <c r="E167">
-        <v>0.8</v>
-      </c>
-      <c r="F167">
-        <v>0.2</v>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>54</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>335</v>
@@ -11384,25 +11384,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>336</v>
@@ -11434,7 +11434,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>337</v>
@@ -11484,25 +11484,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>338</v>
@@ -11534,25 +11534,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>339</v>
@@ -11584,25 +11584,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>340</v>
@@ -11634,25 +11634,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>341</v>
@@ -11684,25 +11684,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>342</v>
@@ -11734,25 +11734,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>343</v>
@@ -11784,25 +11784,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>344</v>
@@ -11834,25 +11834,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>345</v>
@@ -11884,7 +11884,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>346</v>
@@ -11934,7 +11934,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>347</v>
@@ -11984,7 +11984,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12002,10 +12002,10 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K180">
         <v>0.001315732034367812</v>
@@ -12034,25 +12034,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>348</v>
@@ -12084,25 +12084,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>349</v>
@@ -12134,28 +12134,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E183">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F183">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K183">
         <v>0.001315732034367812</v>
@@ -12184,25 +12184,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>350</v>
@@ -12234,7 +12234,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>351</v>
@@ -12284,25 +12284,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>352</v>
@@ -12334,25 +12334,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>353</v>
@@ -12384,25 +12384,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>354</v>
@@ -12434,25 +12434,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>355</v>
@@ -12484,28 +12484,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K190">
         <v>0.001315732034367812</v>
@@ -12534,25 +12534,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>356</v>
@@ -12584,25 +12584,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>357</v>
@@ -12634,7 +12634,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>358</v>
@@ -12684,28 +12684,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K194">
         <v>0.001315732034367812</v>
@@ -12734,25 +12734,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>359</v>
@@ -12784,25 +12784,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>360</v>
@@ -12834,7 +12834,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>361</v>
@@ -12884,25 +12884,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>362</v>
@@ -12934,25 +12934,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>363</v>
@@ -12984,7 +12984,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13002,10 +13002,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K200">
         <v>0.001315732034367812</v>
@@ -13034,28 +13034,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K201">
         <v>0.001315732034367812</v>
@@ -13084,25 +13084,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>364</v>
@@ -13134,25 +13134,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>365</v>
@@ -13184,28 +13184,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K204">
         <v>0.001176826507608206</v>
@@ -13234,25 +13234,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F205">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>366</v>
@@ -13284,28 +13284,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K206">
         <v>0.001176826507608206</v>
@@ -13334,25 +13334,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="E207">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F207">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>367</v>
@@ -13384,25 +13384,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>37</v>
+        <v>532</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>368</v>
@@ -13434,25 +13434,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="E209">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F209">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>369</v>
@@ -13484,13 +13484,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E210">
         <v>0.92</v>
@@ -13502,10 +13502,10 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>532</v>
+        <v>51</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K210">
         <v>0.001176826507608206</v>
@@ -13534,25 +13534,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E211">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>370</v>
@@ -13584,25 +13584,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>371</v>
@@ -13634,25 +13634,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>372</v>
@@ -13684,25 +13684,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>373</v>
@@ -13734,25 +13734,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>374</v>
@@ -13784,25 +13784,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>375</v>
@@ -13834,25 +13834,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E217">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F217">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>376</v>
@@ -13884,25 +13884,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E218">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F218">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>377</v>
@@ -13934,25 +13934,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>378</v>
@@ -13984,25 +13984,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>379</v>
@@ -14034,25 +14034,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>380</v>
@@ -14084,25 +14084,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>381</v>
@@ -14134,25 +14134,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E223">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F223">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>382</v>
@@ -14184,25 +14184,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>383</v>
@@ -14234,13 +14234,13 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E225">
         <v>0.98</v>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>384</v>
@@ -14284,25 +14284,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>385</v>
@@ -14334,25 +14334,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E227">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F227">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>386</v>
@@ -14384,25 +14384,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>387</v>
@@ -14434,25 +14434,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>388</v>
@@ -14484,25 +14484,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>389</v>
@@ -14534,25 +14534,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>390</v>
@@ -14584,25 +14584,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>391</v>
@@ -14634,25 +14634,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>392</v>
@@ -14684,28 +14684,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K234">
         <v>0.001176826507608206</v>
@@ -14734,25 +14734,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F235">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>393</v>
@@ -14784,25 +14784,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>394</v>
@@ -14834,25 +14834,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>395</v>
@@ -14884,22 +14884,22 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>50</v>
@@ -14934,25 +14934,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>397</v>
@@ -14984,7 +14984,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>398</v>
@@ -15034,7 +15034,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15052,10 +15052,10 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K241">
         <v>0.001176826507608206</v>
@@ -15084,25 +15084,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>399</v>
@@ -15134,7 +15134,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>400</v>
@@ -15184,25 +15184,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>401</v>
@@ -15234,7 +15234,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002149467086421073</v>
+        <v>0.002184515098785099</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15252,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>402</v>
@@ -15280,30 +15280,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.002149467086421073</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>10</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>403</v>
       </c>
@@ -15330,30 +15306,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.002149467086421073</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>10</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>404</v>
       </c>
@@ -15485,7 +15437,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K252">
         <v>0.001019161651435628</v>
@@ -15537,7 +15489,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="J254" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K254">
         <v>0.001019161651435628</v>
@@ -15797,7 +15749,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K264">
         <v>0.001019161651435628</v>
@@ -15979,7 +15931,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K271">
         <v>0.001019161651435628</v>
@@ -16057,7 +16009,7 @@
     </row>
     <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K274">
         <v>0.001019161651435628</v>
@@ -16135,7 +16087,7 @@
     </row>
     <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K277">
         <v>0.001019161651435628</v>
@@ -16447,7 +16399,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K289">
         <v>0.001019161651435628</v>
@@ -16473,7 +16425,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K290">
         <v>0.001019161651435628</v>
@@ -17045,7 +16997,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K312">
         <v>0.001019161651435628</v>
@@ -17071,7 +17023,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K313">
         <v>0.001019161651435628</v>
@@ -17149,7 +17101,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K316">
         <v>0.001019161651435628</v>
@@ -17539,7 +17491,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K331">
         <v>0.0008321420038098449</v>
@@ -17591,7 +17543,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K333">
         <v>0.0008321420038098449</v>
@@ -18163,7 +18115,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K355">
         <v>0.0008321420038098449</v>
@@ -18189,7 +18141,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K356">
         <v>0.0008321420038098449</v>
@@ -18241,7 +18193,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K358">
         <v>0.0008321420038098449</v>
@@ -18293,7 +18245,7 @@
     </row>
     <row r="360" spans="10:17">
       <c r="J360" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K360">
         <v>0.0008321420038098449</v>
@@ -18657,7 +18609,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K374">
         <v>0.0008321420038098449</v>
@@ -18683,7 +18635,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K375">
         <v>0.0008321420038098449</v>
@@ -19047,7 +18999,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K389">
         <v>0.0008321420038098449</v>
@@ -19645,7 +19597,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K412">
         <v>0.0008321420038098449</v>
@@ -19801,7 +19753,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K418">
         <v>0.0008321420038098449</v>
@@ -20243,7 +20195,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K435">
         <v>0.0008321420038098449</v>
@@ -21023,7 +20975,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K465">
         <v>0.0005884132538041031</v>
@@ -21361,7 +21313,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K478">
         <v>0.0005884132538041031</v>
@@ -22557,7 +22509,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K524">
         <v>0.0005884132538041031</v>
@@ -22765,7 +22717,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K532">
         <v>0.0005884132538041031</v>
@@ -23311,7 +23263,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K553">
         <v>0.0005884132538041031</v>
@@ -23389,7 +23341,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K556">
         <v>0.0005884132538041031</v>
@@ -24585,7 +24537,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K602">
         <v>0.0005884132538041031</v>
@@ -24767,7 +24719,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K609">
         <v>0.0005884132538041031</v>
@@ -25131,7 +25083,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K623">
         <v>0.0005884132538041031</v>
@@ -26379,7 +26331,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K671">
         <v>0.0005884132538041031</v>
@@ -26691,7 +26643,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K683">
         <v>0.0005884132538041031</v>
@@ -26717,7 +26669,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K684">
         <v>0.0005884132538041031</v>
@@ -27315,7 +27267,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K707">
         <v>0.0005884132538041031</v>
@@ -27965,7 +27917,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K732">
         <v>0.0005884132538041031</v>
@@ -28095,7 +28047,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K737">
         <v>0.0005884132538041031</v>
